--- a/movie.xlsx
+++ b/movie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>台灣超人</t>
+          <t>艾諾拉</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,31 +472,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>隔壁的房間</t>
+          <t>LAST MILE：全面引爆</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>死命必達</t>
+          <t>交換禮物</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>聽說</t>
+          <t>破．地獄</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,211 +508,211 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>雨中的慾情</t>
+          <t>魔法壞女巫</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-11-21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>鳳姐</t>
+          <t>鑽石大劫案：極盜戰</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-01-29</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>艾諾拉</t>
+          <t>哈利波特 阿茲卡班的逃犯</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>一部未完成的電影</t>
+          <t>哈利波特 火盃的考驗</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LAST MILE：全面引爆</t>
+          <t>哈利波特 鳳凰會的密令</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>美妙寵物 光之美少女電影：心跳加速♡遊戲世界大冒險！</t>
+          <t>哈利波特 死神的聖物 I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>神鬼戰士II</t>
+          <t>哈利波特 混血王子的背叛</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>劇場版 忍者亂太郎 毒竹忍者隊最強之軍師</t>
+          <t>哈利波特 死神的聖物 II</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>故事 開始的地方－希望閱讀</t>
+          <t>(重映) 懼裂</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>巴布狄倫：搖滾詩人</t>
+          <t>(重映) 驀然回首</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>祝你們幸福</t>
+          <t>見鬼發財</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>真的好想贏1場</t>
+          <t>不能說的秘密</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>交換禮物</t>
+          <t>更好的人</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>鬼妹</t>
+          <t>你好，愛，再次</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2025-01-10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>爸爸</t>
+          <t>【我推的孩子】電影版</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>破．地獄</t>
+          <t>PUI PUI 天竺鼠車車 電影版 MOLMAX</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>柏靈頓：熊熊去秘魯</t>
+          <t>笑傲江湖</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-01-24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>黑祭司2：闇黑修女</t>
+          <t>天使營救</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>狼人</t>
+          <t>工作細胞</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>八犬傳</t>
+          <t>(經典重映) 星際效應</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,43 +748,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>第一聖拳</t>
+          <t>乖女孩</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-17</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>來福大酒店</t>
+          <t>(重映) 角頭-大橋頭</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-24</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>工作細胞</t>
+          <t>誤判</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2024-12-27</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>哈爾濱</t>
+          <t>烈火救援</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,468 +796,252 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>鬼診所</t>
+          <t>音速小子3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-12-27</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>狂人法則</t>
+          <t>巴布狄倫：搖滾詩人</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-24</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>獵人克萊文</t>
+          <t>柏靈頓：熊熊去秘魯</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-01-25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>魔法壞女巫</t>
+          <t>海洋奇緣2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-28</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>鑽石大劫案：極盜戰</t>
+          <t>獅子王：木法沙</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2024-12-19</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>哈利波特 神秘的魔法石</t>
+          <t>夜校女生</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-27</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>哈利波特 消失的密室</t>
+          <t>劇場版 忍者亂太郎 毒竹忍者隊最強之軍師</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-29</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>哈利波特 阿茲卡班的逃犯</t>
+          <t>(重映) STAND BY ME 哆啦A夢</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-29</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>哈利波特 火盃的考驗</t>
+          <t>狼人</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>哈利波特 鳳凰會的密令</t>
+          <t>哈爾濱</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-29</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>哈利波特 死神的聖物 I</t>
+          <t>完美伴侶</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-29</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>哈利波特 混血王子的背叛</t>
+          <t>黑祭司2：闇黑修女</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>哈利波特 死神的聖物 II</t>
+          <t>劇場版「進擊的巨人」完結篇THE LAST ATTACK</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-03</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>魔戒：洛汗人之戰</t>
+          <t>心之觸碰。</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>2025-02-07</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>(重映) 懼裂</t>
+          <t>鬼太郎誕生：咯咯咯之謎真生版</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-07</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>(重映) 驀然回首</t>
+          <t>美國隊長：無畏新世界</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-12</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>【我推的孩子】電影版</t>
+          <t>(G)I-DLE WORLD TOUR [iDOL] IN CINEMAS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-29</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>見鬼發財</t>
+          <t>IU CONCERT：THE WINNING</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>不能說的秘密</t>
+          <t>圓圈</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-21</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>乖女孩</t>
+          <t>狠狠愛</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-07</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>海洋奇緣2</t>
+          <t>哥吉拉-1.0</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-11-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>PUI PUI 天竺鼠車車 電影版 MOLMAX</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>更好的人</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>音速小子3</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2024-12-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>你好，愛，再次</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2025-01-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>(經典重映) 星際效應</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2025-01-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>誤判</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2024-12-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>獅子王：木法沙</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2024-12-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>劇場版「進擊的巨人」完結篇THE LAST ATTACK</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>(G)I-DLE WORLD TOUR [iDOL] IN CINEMAS</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
           <t>2025-01-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>完美伴侶</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2025-01-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>心之觸碰。</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>烈火救援</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2025-01-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>笑傲江湖</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2025-01-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>鬼太郎誕生：咯咯咯之謎真生版</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>天使營救</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2025-01-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>美國隊長：無畏新世界</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>夜校女生</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>IU CONCERT : THE WINNING</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
         </is>
       </c>
     </row>
